--- a/Excel/GiftPackExclusiveConfig.xlsx
+++ b/Excel/GiftPackExclusiveConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -681,7 +681,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -690,8 +690,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1011,10 +1009,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48:E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="7"/>
@@ -1105,773 +1103,795 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6">
+    <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C6" s="2">
         <v>101</v>
       </c>
-      <c r="D6" s="6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6">
-        <v>5</v>
-      </c>
-      <c r="F6" s="7">
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
         <v>14</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="2">
         <v>10010</v>
       </c>
-      <c r="H6" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6">
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C7" s="2">
         <v>102</v>
       </c>
-      <c r="D7" s="6">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6">
-        <v>5</v>
-      </c>
-      <c r="F7" s="7">
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2">
         <v>10022</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="2">
         <v>7</v>
       </c>
-      <c r="H7" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6">
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C8" s="2">
         <v>103</v>
       </c>
-      <c r="D8" s="6">
-        <v>1</v>
-      </c>
-      <c r="E8" s="6">
-        <v>5</v>
-      </c>
-      <c r="F8" s="6">
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2">
         <v>15</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="2">
         <v>10024</v>
       </c>
-      <c r="H8" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6">
+      <c r="H8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C9" s="2">
         <v>104</v>
       </c>
-      <c r="D9" s="6">
-        <v>1</v>
-      </c>
-      <c r="E9" s="6">
-        <v>5</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2">
         <v>10049</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="2">
         <v>8</v>
       </c>
-      <c r="H9" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6">
+      <c r="H9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C10" s="2">
         <v>105</v>
       </c>
-      <c r="D10" s="6">
-        <v>1</v>
-      </c>
-      <c r="E10" s="6">
-        <v>5</v>
-      </c>
-      <c r="F10" s="6">
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2">
         <v>16</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="2">
         <v>10038</v>
       </c>
-      <c r="H10" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6">
+      <c r="H10" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C11" s="2">
         <v>106</v>
       </c>
-      <c r="D11" s="6">
-        <v>1</v>
-      </c>
-      <c r="E11" s="6">
-        <v>5</v>
-      </c>
-      <c r="F11" s="6">
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2">
         <v>10064</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="2">
         <v>9</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1"/>
-    <row r="13" s="2" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6">
+    <row r="13" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C13" s="2">
         <v>201</v>
       </c>
-      <c r="D13" s="6">
-        <v>2</v>
-      </c>
-      <c r="E13" s="6">
-        <v>5</v>
-      </c>
-      <c r="F13" s="7">
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>5</v>
+      </c>
+      <c r="F13" s="2">
         <v>14</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="2">
         <v>10010</v>
       </c>
-      <c r="H13" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" s="2" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6">
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C14" s="2">
         <v>202</v>
       </c>
-      <c r="D14" s="6">
-        <v>2</v>
-      </c>
-      <c r="E14" s="6">
-        <v>5</v>
-      </c>
-      <c r="F14" s="7">
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>5</v>
+      </c>
+      <c r="F14" s="2">
         <v>10022</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="2">
         <v>7</v>
       </c>
-      <c r="H14" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" s="2" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6">
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C15" s="2">
         <v>203</v>
       </c>
-      <c r="D15" s="6">
-        <v>2</v>
-      </c>
-      <c r="E15" s="6">
-        <v>5</v>
-      </c>
-      <c r="F15" s="6">
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>5</v>
+      </c>
+      <c r="F15" s="2">
         <v>15</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="2">
         <v>10024</v>
       </c>
-      <c r="H15" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" s="2" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6">
+      <c r="H15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C16" s="2">
         <v>204</v>
       </c>
-      <c r="D16" s="6">
-        <v>2</v>
-      </c>
-      <c r="E16" s="6">
-        <v>5</v>
-      </c>
-      <c r="F16" s="6">
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>5</v>
+      </c>
+      <c r="F16" s="2">
         <v>10049</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="2">
         <v>8</v>
       </c>
-      <c r="H16" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" s="2" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6">
+      <c r="H16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C17" s="2">
         <v>205</v>
       </c>
-      <c r="D17" s="6">
-        <v>2</v>
-      </c>
-      <c r="E17" s="6">
-        <v>5</v>
-      </c>
-      <c r="F17" s="6">
+      <c r="D17" s="2">
+        <v>2</v>
+      </c>
+      <c r="E17" s="2">
+        <v>5</v>
+      </c>
+      <c r="F17" s="2">
         <v>16</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="2">
         <v>10038</v>
       </c>
-      <c r="H17" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" s="2" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6">
+      <c r="H17" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C18" s="2">
         <v>206</v>
       </c>
-      <c r="D18" s="6">
-        <v>2</v>
-      </c>
-      <c r="E18" s="6">
-        <v>5</v>
-      </c>
-      <c r="F18" s="6">
+      <c r="D18" s="2">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5</v>
+      </c>
+      <c r="F18" s="2">
         <v>10064</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="2">
         <v>9</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1"/>
-    <row r="20" s="2" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6">
+    <row r="20" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C20" s="2">
         <v>301</v>
       </c>
-      <c r="D20" s="6">
-        <v>3</v>
-      </c>
-      <c r="E20" s="6">
-        <v>5</v>
-      </c>
-      <c r="F20" s="7">
+      <c r="D20" s="2">
+        <v>3</v>
+      </c>
+      <c r="E20" s="2">
+        <v>5</v>
+      </c>
+      <c r="F20" s="2">
         <v>14</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="2">
         <v>10010</v>
       </c>
-      <c r="H20" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" s="2" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6">
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C21" s="2">
         <v>302</v>
       </c>
-      <c r="D21" s="6">
-        <v>3</v>
-      </c>
-      <c r="E21" s="6">
-        <v>5</v>
-      </c>
-      <c r="F21" s="7">
+      <c r="D21" s="2">
+        <v>3</v>
+      </c>
+      <c r="E21" s="2">
+        <v>5</v>
+      </c>
+      <c r="F21" s="2">
         <v>10022</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="2">
         <v>7</v>
       </c>
-      <c r="H21" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" s="2" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6">
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C22" s="2">
         <v>303</v>
       </c>
-      <c r="D22" s="6">
-        <v>3</v>
-      </c>
-      <c r="E22" s="6">
-        <v>5</v>
-      </c>
-      <c r="F22" s="6">
+      <c r="D22" s="2">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2">
+        <v>5</v>
+      </c>
+      <c r="F22" s="2">
         <v>15</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="2">
         <v>10024</v>
       </c>
-      <c r="H22" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" s="2" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6">
+      <c r="H22" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C23" s="2">
         <v>304</v>
       </c>
-      <c r="D23" s="6">
-        <v>3</v>
-      </c>
-      <c r="E23" s="6">
-        <v>5</v>
-      </c>
-      <c r="F23" s="6">
+      <c r="D23" s="2">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2">
+        <v>5</v>
+      </c>
+      <c r="F23" s="2">
         <v>10049</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="2">
         <v>8</v>
       </c>
-      <c r="H23" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" s="2" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6">
+      <c r="H23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C24" s="2">
         <v>305</v>
       </c>
-      <c r="D24" s="6">
-        <v>3</v>
-      </c>
-      <c r="E24" s="6">
-        <v>5</v>
-      </c>
-      <c r="F24" s="6">
+      <c r="D24" s="2">
+        <v>3</v>
+      </c>
+      <c r="E24" s="2">
+        <v>5</v>
+      </c>
+      <c r="F24" s="2">
         <v>16</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="2">
         <v>10038</v>
       </c>
-      <c r="H24" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" s="2" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6">
+      <c r="H24" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C25" s="2">
         <v>306</v>
       </c>
-      <c r="D25" s="6">
-        <v>3</v>
-      </c>
-      <c r="E25" s="6">
-        <v>5</v>
-      </c>
-      <c r="F25" s="6">
+      <c r="D25" s="2">
+        <v>3</v>
+      </c>
+      <c r="E25" s="2">
+        <v>5</v>
+      </c>
+      <c r="F25" s="2">
         <v>10064</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="2">
         <v>9</v>
       </c>
-      <c r="H25" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" s="2" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" s="2" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B27" s="6"/>
-      <c r="C27" s="6">
+      <c r="H25" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" customHeight="1"/>
+    <row r="27" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C27" s="2">
         <v>401</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="2">
         <v>4</v>
       </c>
-      <c r="E27" s="6">
-        <v>5</v>
-      </c>
-      <c r="F27" s="7">
+      <c r="E27" s="2">
+        <v>5</v>
+      </c>
+      <c r="F27" s="2">
         <v>14</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="2">
         <v>10010</v>
       </c>
-      <c r="H27" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" s="2" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B28" s="6"/>
-      <c r="C28" s="6">
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C28" s="2">
         <v>402</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="2">
         <v>4</v>
       </c>
-      <c r="E28" s="6">
-        <v>5</v>
-      </c>
-      <c r="F28" s="7">
+      <c r="E28" s="2">
+        <v>5</v>
+      </c>
+      <c r="F28" s="2">
         <v>10022</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="2">
         <v>7</v>
       </c>
-      <c r="H28" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" s="2" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B29" s="6"/>
-      <c r="C29" s="6">
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C29" s="2">
         <v>403</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="2">
         <v>4</v>
       </c>
-      <c r="E29" s="6">
-        <v>5</v>
-      </c>
-      <c r="F29" s="6">
+      <c r="E29" s="2">
+        <v>5</v>
+      </c>
+      <c r="F29" s="2">
         <v>15</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="2">
         <v>10024</v>
       </c>
-      <c r="H29" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" s="2" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B30" s="6"/>
-      <c r="C30" s="6">
+      <c r="H29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C30" s="2">
         <v>404</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="2">
         <v>4</v>
       </c>
-      <c r="E30" s="6">
-        <v>5</v>
-      </c>
-      <c r="F30" s="6">
+      <c r="E30" s="2">
+        <v>5</v>
+      </c>
+      <c r="F30" s="2">
         <v>10049</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="2">
         <v>8</v>
       </c>
-      <c r="H30" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" s="2" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B31" s="6"/>
-      <c r="C31" s="6">
+      <c r="H30" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C31" s="2">
         <v>405</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="2">
         <v>4</v>
       </c>
-      <c r="E31" s="6">
-        <v>5</v>
-      </c>
-      <c r="F31" s="6">
+      <c r="E31" s="2">
+        <v>5</v>
+      </c>
+      <c r="F31" s="2">
         <v>16</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="2">
         <v>10038</v>
       </c>
-      <c r="H31" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" s="2" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B32" s="6"/>
-      <c r="C32" s="6">
+      <c r="H31" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C32" s="2">
         <v>406</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="2">
         <v>4</v>
       </c>
-      <c r="E32" s="6">
-        <v>5</v>
-      </c>
-      <c r="F32" s="6">
+      <c r="E32" s="2">
+        <v>5</v>
+      </c>
+      <c r="F32" s="2">
         <v>10064</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="2">
         <v>9</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1"/>
-    <row r="34" s="2" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B34" s="6"/>
-      <c r="C34" s="6">
+    <row r="34" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C34" s="2">
         <v>501</v>
       </c>
-      <c r="D34" s="6">
-        <v>5</v>
-      </c>
-      <c r="E34" s="6">
-        <v>5</v>
-      </c>
-      <c r="F34" s="7">
+      <c r="D34" s="2">
+        <v>5</v>
+      </c>
+      <c r="E34" s="2">
+        <v>5</v>
+      </c>
+      <c r="F34" s="2">
         <v>14</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="2">
         <v>10010</v>
       </c>
-      <c r="H34" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" s="2" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B35" s="6"/>
-      <c r="C35" s="6">
+      <c r="H34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C35" s="2">
         <v>502</v>
       </c>
-      <c r="D35" s="6">
-        <v>5</v>
-      </c>
-      <c r="E35" s="6">
-        <v>5</v>
-      </c>
-      <c r="F35" s="7">
+      <c r="D35" s="2">
+        <v>5</v>
+      </c>
+      <c r="E35" s="2">
+        <v>5</v>
+      </c>
+      <c r="F35" s="2">
         <v>10022</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="2">
         <v>7</v>
       </c>
-      <c r="H35" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" s="2" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B36" s="6"/>
-      <c r="C36" s="6">
+      <c r="H35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C36" s="2">
         <v>503</v>
       </c>
-      <c r="D36" s="6">
-        <v>5</v>
-      </c>
-      <c r="E36" s="6">
-        <v>5</v>
-      </c>
-      <c r="F36" s="6">
+      <c r="D36" s="2">
+        <v>5</v>
+      </c>
+      <c r="E36" s="2">
+        <v>5</v>
+      </c>
+      <c r="F36" s="2">
         <v>15</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="2">
         <v>10024</v>
       </c>
-      <c r="H36" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" s="2" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B37" s="6"/>
-      <c r="C37" s="6">
+      <c r="H36" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C37" s="2">
         <v>504</v>
       </c>
-      <c r="D37" s="6">
-        <v>5</v>
-      </c>
-      <c r="E37" s="6">
-        <v>5</v>
-      </c>
-      <c r="F37" s="6">
+      <c r="D37" s="2">
+        <v>5</v>
+      </c>
+      <c r="E37" s="2">
+        <v>5</v>
+      </c>
+      <c r="F37" s="2">
         <v>10049</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="2">
         <v>8</v>
       </c>
-      <c r="H37" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" s="2" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B38" s="6"/>
-      <c r="C38" s="6">
+      <c r="H37" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C38" s="2">
         <v>505</v>
       </c>
-      <c r="D38" s="6">
-        <v>5</v>
-      </c>
-      <c r="E38" s="6">
-        <v>5</v>
-      </c>
-      <c r="F38" s="6">
+      <c r="D38" s="2">
+        <v>5</v>
+      </c>
+      <c r="E38" s="2">
+        <v>5</v>
+      </c>
+      <c r="F38" s="2">
         <v>16</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="2">
         <v>10038</v>
       </c>
-      <c r="H38" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" s="2" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B39" s="6"/>
-      <c r="C39" s="6">
+      <c r="H38" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C39" s="2">
         <v>506</v>
       </c>
-      <c r="D39" s="6">
-        <v>5</v>
-      </c>
-      <c r="E39" s="6">
-        <v>5</v>
-      </c>
-      <c r="F39" s="6">
+      <c r="D39" s="2">
+        <v>5</v>
+      </c>
+      <c r="E39" s="2">
+        <v>5</v>
+      </c>
+      <c r="F39" s="2">
         <v>10064</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="2">
         <v>9</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H39" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" customHeight="1"/>
-    <row r="41" s="2" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B41" s="6"/>
-      <c r="C41" s="6">
+    <row r="41" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C41" s="2">
         <v>601</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="2">
         <v>6</v>
       </c>
-      <c r="E41" s="6">
-        <v>5</v>
-      </c>
-      <c r="F41" s="7">
+      <c r="E41" s="2">
+        <v>5</v>
+      </c>
+      <c r="F41" s="2">
         <v>14</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="2">
         <v>10010</v>
       </c>
-      <c r="H41" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" s="2" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B42" s="6"/>
-      <c r="C42" s="6">
+      <c r="H41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C42" s="2">
         <v>602</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="2">
         <v>6</v>
       </c>
-      <c r="E42" s="6">
-        <v>5</v>
-      </c>
-      <c r="F42" s="7">
+      <c r="E42" s="2">
+        <v>5</v>
+      </c>
+      <c r="F42" s="2">
         <v>10022</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="2">
         <v>7</v>
       </c>
-      <c r="H42" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" s="2" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B43" s="6"/>
-      <c r="C43" s="6">
+      <c r="H42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C43" s="2">
         <v>603</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="2">
         <v>6</v>
       </c>
-      <c r="E43" s="6">
-        <v>5</v>
-      </c>
-      <c r="F43" s="6">
+      <c r="E43" s="2">
+        <v>5</v>
+      </c>
+      <c r="F43" s="2">
         <v>15</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="2">
         <v>10024</v>
       </c>
-      <c r="H43" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" s="2" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B44" s="6"/>
-      <c r="C44" s="6">
+      <c r="H43" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C44" s="2">
         <v>604</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="2">
         <v>6</v>
       </c>
-      <c r="E44" s="6">
-        <v>5</v>
-      </c>
-      <c r="F44" s="6">
+      <c r="E44" s="2">
+        <v>5</v>
+      </c>
+      <c r="F44" s="2">
         <v>10049</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="2">
         <v>8</v>
       </c>
-      <c r="H44" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" s="2" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B45" s="6"/>
-      <c r="C45" s="6">
+      <c r="H44" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C45" s="2">
         <v>605</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="2">
         <v>6</v>
       </c>
-      <c r="E45" s="6">
-        <v>5</v>
-      </c>
-      <c r="F45" s="6">
+      <c r="E45" s="2">
+        <v>5</v>
+      </c>
+      <c r="F45" s="2">
         <v>16</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G45" s="2">
         <v>10038</v>
       </c>
-      <c r="H45" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" s="2" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B46" s="6"/>
-      <c r="C46" s="6">
+      <c r="H45" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C46" s="2">
         <v>606</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="2">
         <v>6</v>
       </c>
-      <c r="E46" s="6">
-        <v>5</v>
-      </c>
-      <c r="F46" s="6">
+      <c r="E46" s="2">
+        <v>5</v>
+      </c>
+      <c r="F46" s="2">
         <v>10064</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="2">
         <v>9</v>
       </c>
-      <c r="H46" s="6">
-        <v>3</v>
+      <c r="H46" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="3:5">
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="3:5">
+      <c r="C49" s="1">
+        <v>2</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="3:5">
+      <c r="C50" s="1">
+        <v>3</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="3:5">
+      <c r="C51" s="1">
+        <v>4</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+      <c r="E51" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="3:5">
+      <c r="C52" s="1">
+        <v>5</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="3:5">
+      <c r="C53" s="1">
+        <v>6</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1</v>
+      </c>
+      <c r="E53" s="2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GiftPackExclusiveConfig.xlsx
+++ b/Excel/GiftPackExclusiveConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -41,6 +41,24 @@
   </si>
   <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>赫景鸿</t>
+  </si>
+  <si>
+    <t>基岩</t>
+  </si>
+  <si>
+    <t>鸡腿</t>
+  </si>
+  <si>
+    <t>微笑</t>
+  </si>
+  <si>
+    <t>老玩家的狗都不如</t>
+  </si>
+  <si>
+    <t>轻狂散人</t>
   </si>
 </sst>
 </file>
@@ -1009,13 +1027,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48:E53"/>
+    <sheetView tabSelected="1" topLeftCell="B33" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6.875" style="3" customWidth="1"/>
     <col min="2" max="2" width="9" style="3"/>
@@ -1023,7 +1041,8 @@
     <col min="4" max="4" width="11.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.125" style="2" customWidth="1"/>
     <col min="6" max="8" width="12.25" style="2" customWidth="1"/>
-    <col min="9" max="16368" width="9" style="3"/>
+    <col min="9" max="9" width="13.75" style="3" customWidth="1"/>
+    <col min="10" max="16368" width="9" style="3"/>
     <col min="16369" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1828,70 +1847,142 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="3:5">
+    <row r="48" customHeight="1" spans="3:9">
       <c r="C48" s="1">
         <v>1</v>
       </c>
       <c r="D48" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E48" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" customHeight="1" spans="3:5">
+      <c r="F48" s="2">
+        <v>18</v>
+      </c>
+      <c r="G48" s="2">
+        <v>6</v>
+      </c>
+      <c r="H48" s="2">
+        <v>2</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="3:9">
       <c r="C49" s="1">
         <v>2</v>
       </c>
       <c r="D49" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E49" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" customHeight="1" spans="3:5">
+      <c r="F49" s="2">
+        <v>22</v>
+      </c>
+      <c r="G49" s="2">
+        <v>14</v>
+      </c>
+      <c r="H49" s="2">
+        <v>2</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="3:9">
       <c r="C50" s="1">
         <v>3</v>
       </c>
       <c r="D50" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E50" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" customHeight="1" spans="3:5">
+      <c r="F50" s="2">
+        <v>23</v>
+      </c>
+      <c r="G50" s="2">
+        <v>4</v>
+      </c>
+      <c r="H50" s="2">
+        <v>1</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="3:9">
       <c r="C51" s="1">
         <v>4</v>
       </c>
       <c r="D51" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E51" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" customHeight="1" spans="3:5">
+      <c r="F51" s="2">
+        <v>10063</v>
+      </c>
+      <c r="G51" s="2">
+        <v>10038</v>
+      </c>
+      <c r="H51" s="2">
+        <v>1</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="3:9">
       <c r="C52" s="1">
         <v>5</v>
       </c>
       <c r="D52" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E52" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" customHeight="1" spans="3:5">
+      <c r="F52" s="2">
+        <v>8</v>
+      </c>
+      <c r="G52" s="2">
+        <v>10017</v>
+      </c>
+      <c r="H52" s="2">
+        <v>2</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="3:9">
       <c r="C53" s="1">
         <v>6</v>
       </c>
       <c r="D53" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E53" s="2">
         <v>5</v>
+      </c>
+      <c r="F53" s="2">
+        <v>16</v>
+      </c>
+      <c r="G53" s="2">
+        <v>10031</v>
+      </c>
+      <c r="H53" s="2">
+        <v>3</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GiftPackExclusiveConfig.xlsx
+++ b/Excel/GiftPackExclusiveConfig.xlsx
@@ -4,19 +4,35 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
   <si>
     <t>ExclusiveId</t>
@@ -64,7 +80,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1027,23 +1043,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B33" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48:H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6.875" style="3" customWidth="1"/>
     <col min="2" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="2" customWidth="1"/>
-    <col min="6" max="8" width="12.25" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.75" style="3" customWidth="1"/>
-    <col min="10" max="16368" width="9" style="3"/>
-    <col min="16369" max="16384" width="9" style="2"/>
+    <col min="3" max="4" width="9.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" style="2" customWidth="1"/>
+    <col min="7" max="9" width="12.25" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.75" style="3" customWidth="1"/>
+    <col min="11" max="16369" width="9" style="3"/>
+    <col min="16370" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:2">
@@ -1054,7 +1070,7 @@
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:8">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
@@ -1075,12 +1091,15 @@
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="I3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>1</v>
@@ -1097,32 +1116,38 @@
       <c r="H4" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="I4" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" customHeight="1" spans="3:8">
+        <v>9</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" customHeight="1" spans="3:9">
       <c r="C6" s="2">
         <v>101</v>
       </c>
@@ -1130,19 +1155,22 @@
         <v>1</v>
       </c>
       <c r="E6" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2">
         <v>14</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>10010</v>
       </c>
-      <c r="H6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" customHeight="1" spans="3:9">
       <c r="C7" s="2">
         <v>102</v>
       </c>
@@ -1150,19 +1178,22 @@
         <v>1</v>
       </c>
       <c r="E7" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2">
         <v>10022</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>7</v>
       </c>
-      <c r="H7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" customHeight="1" spans="3:9">
       <c r="C8" s="2">
         <v>103</v>
       </c>
@@ -1170,19 +1201,22 @@
         <v>1</v>
       </c>
       <c r="E8" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2">
         <v>15</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>10024</v>
       </c>
-      <c r="H8" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="I8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" customHeight="1" spans="3:9">
       <c r="C9" s="2">
         <v>104</v>
       </c>
@@ -1190,19 +1224,22 @@
         <v>1</v>
       </c>
       <c r="E9" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2">
+        <v>5</v>
+      </c>
+      <c r="G9" s="2">
         <v>10049</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <v>8</v>
       </c>
-      <c r="H9" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="I9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" customHeight="1" spans="3:9">
       <c r="C10" s="2">
         <v>105</v>
       </c>
@@ -1210,19 +1247,22 @@
         <v>1</v>
       </c>
       <c r="E10" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2">
         <v>16</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>10038</v>
       </c>
-      <c r="H10" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="I10" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="3:9">
       <c r="C11" s="2">
         <v>106</v>
       </c>
@@ -1230,764 +1270,1013 @@
         <v>1</v>
       </c>
       <c r="E11" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2">
+        <v>5</v>
+      </c>
+      <c r="G11" s="2">
         <v>10064</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <v>9</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1"/>
-    <row r="13" s="2" customFormat="1" customHeight="1" spans="3:8">
+    <row r="13" s="2" customFormat="1" customHeight="1" spans="3:9">
       <c r="C13" s="2">
         <v>201</v>
       </c>
       <c r="D13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F13" s="2">
+        <v>5</v>
+      </c>
+      <c r="G13" s="2">
         <v>14</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H13" s="2">
         <v>10010</v>
       </c>
-      <c r="H13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" customHeight="1" spans="3:9">
       <c r="C14" s="2">
         <v>202</v>
       </c>
       <c r="D14" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F14" s="2">
+        <v>5</v>
+      </c>
+      <c r="G14" s="2">
         <v>10022</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H14" s="2">
         <v>7</v>
       </c>
-      <c r="H14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" customHeight="1" spans="3:9">
       <c r="C15" s="2">
         <v>203</v>
       </c>
       <c r="D15" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F15" s="2">
+        <v>5</v>
+      </c>
+      <c r="G15" s="2">
         <v>15</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H15" s="2">
         <v>10024</v>
       </c>
-      <c r="H15" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="I15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" customHeight="1" spans="3:9">
       <c r="C16" s="2">
         <v>204</v>
       </c>
       <c r="D16" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F16" s="2">
+        <v>5</v>
+      </c>
+      <c r="G16" s="2">
         <v>10049</v>
       </c>
-      <c r="G16" s="2">
+      <c r="H16" s="2">
         <v>8</v>
       </c>
-      <c r="H16" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="I16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="3:9">
       <c r="C17" s="2">
         <v>205</v>
       </c>
       <c r="D17" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F17" s="2">
+        <v>5</v>
+      </c>
+      <c r="G17" s="2">
         <v>16</v>
       </c>
-      <c r="G17" s="2">
+      <c r="H17" s="2">
         <v>10038</v>
       </c>
-      <c r="H17" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="I17" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" customHeight="1" spans="3:9">
       <c r="C18" s="2">
         <v>206</v>
       </c>
       <c r="D18" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F18" s="2">
+        <v>5</v>
+      </c>
+      <c r="G18" s="2">
         <v>10064</v>
       </c>
-      <c r="G18" s="2">
+      <c r="H18" s="2">
         <v>9</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I18" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1"/>
-    <row r="20" s="2" customFormat="1" customHeight="1" spans="3:8">
+    <row r="20" s="2" customFormat="1" customHeight="1" spans="3:9">
       <c r="C20" s="2">
         <v>301</v>
       </c>
       <c r="D20" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E20" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F20" s="2">
+        <v>5</v>
+      </c>
+      <c r="G20" s="2">
         <v>14</v>
       </c>
-      <c r="G20" s="2">
+      <c r="H20" s="2">
         <v>10010</v>
       </c>
-      <c r="H20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" customHeight="1" spans="3:9">
       <c r="C21" s="2">
         <v>302</v>
       </c>
       <c r="D21" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E21" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F21" s="2">
+        <v>5</v>
+      </c>
+      <c r="G21" s="2">
         <v>10022</v>
       </c>
-      <c r="G21" s="2">
+      <c r="H21" s="2">
         <v>7</v>
       </c>
-      <c r="H21" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" customHeight="1" spans="3:9">
       <c r="C22" s="2">
         <v>303</v>
       </c>
       <c r="D22" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E22" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F22" s="2">
+        <v>5</v>
+      </c>
+      <c r="G22" s="2">
         <v>15</v>
       </c>
-      <c r="G22" s="2">
+      <c r="H22" s="2">
         <v>10024</v>
       </c>
-      <c r="H22" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="I22" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" customHeight="1" spans="3:9">
       <c r="C23" s="2">
         <v>304</v>
       </c>
       <c r="D23" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E23" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F23" s="2">
+        <v>5</v>
+      </c>
+      <c r="G23" s="2">
         <v>10049</v>
       </c>
-      <c r="G23" s="2">
+      <c r="H23" s="2">
         <v>8</v>
       </c>
-      <c r="H23" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="I23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" customHeight="1" spans="3:9">
       <c r="C24" s="2">
         <v>305</v>
       </c>
       <c r="D24" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E24" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F24" s="2">
+        <v>5</v>
+      </c>
+      <c r="G24" s="2">
         <v>16</v>
       </c>
-      <c r="G24" s="2">
+      <c r="H24" s="2">
         <v>10038</v>
       </c>
-      <c r="H24" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="I24" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" customHeight="1" spans="3:9">
       <c r="C25" s="2">
         <v>306</v>
       </c>
       <c r="D25" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E25" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F25" s="2">
+        <v>5</v>
+      </c>
+      <c r="G25" s="2">
         <v>10064</v>
       </c>
-      <c r="G25" s="2">
+      <c r="H25" s="2">
         <v>9</v>
       </c>
-      <c r="H25" s="2">
+      <c r="I25" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1"/>
-    <row r="27" s="2" customFormat="1" customHeight="1" spans="3:8">
+    <row r="27" s="2" customFormat="1" customHeight="1" spans="3:9">
       <c r="C27" s="2">
         <v>401</v>
       </c>
       <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2">
         <v>4</v>
       </c>
-      <c r="E27" s="2">
-        <v>5</v>
-      </c>
       <c r="F27" s="2">
+        <v>5</v>
+      </c>
+      <c r="G27" s="2">
         <v>14</v>
       </c>
-      <c r="G27" s="2">
+      <c r="H27" s="2">
         <v>10010</v>
       </c>
-      <c r="H27" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" customHeight="1" spans="3:9">
       <c r="C28" s="2">
         <v>402</v>
       </c>
       <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
         <v>4</v>
       </c>
-      <c r="E28" s="2">
-        <v>5</v>
-      </c>
       <c r="F28" s="2">
+        <v>5</v>
+      </c>
+      <c r="G28" s="2">
         <v>10022</v>
       </c>
-      <c r="G28" s="2">
+      <c r="H28" s="2">
         <v>7</v>
       </c>
-      <c r="H28" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="I28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="1" customHeight="1" spans="3:9">
       <c r="C29" s="2">
         <v>403</v>
       </c>
       <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2">
         <v>4</v>
       </c>
-      <c r="E29" s="2">
-        <v>5</v>
-      </c>
       <c r="F29" s="2">
+        <v>5</v>
+      </c>
+      <c r="G29" s="2">
         <v>15</v>
       </c>
-      <c r="G29" s="2">
+      <c r="H29" s="2">
         <v>10024</v>
       </c>
-      <c r="H29" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="I29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" s="2" customFormat="1" customHeight="1" spans="3:9">
       <c r="C30" s="2">
         <v>404</v>
       </c>
       <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
         <v>4</v>
       </c>
-      <c r="E30" s="2">
-        <v>5</v>
-      </c>
       <c r="F30" s="2">
+        <v>5</v>
+      </c>
+      <c r="G30" s="2">
         <v>10049</v>
       </c>
-      <c r="G30" s="2">
+      <c r="H30" s="2">
         <v>8</v>
       </c>
-      <c r="H30" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="I30" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="1" customHeight="1" spans="3:9">
       <c r="C31" s="2">
         <v>405</v>
       </c>
       <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
         <v>4</v>
       </c>
-      <c r="E31" s="2">
-        <v>5</v>
-      </c>
       <c r="F31" s="2">
+        <v>5</v>
+      </c>
+      <c r="G31" s="2">
         <v>16</v>
       </c>
-      <c r="G31" s="2">
+      <c r="H31" s="2">
         <v>10038</v>
       </c>
-      <c r="H31" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="I31" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" customHeight="1" spans="3:9">
       <c r="C32" s="2">
         <v>406</v>
       </c>
       <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
         <v>4</v>
       </c>
-      <c r="E32" s="2">
-        <v>5</v>
-      </c>
       <c r="F32" s="2">
+        <v>5</v>
+      </c>
+      <c r="G32" s="2">
         <v>10064</v>
       </c>
-      <c r="G32" s="2">
+      <c r="H32" s="2">
         <v>9</v>
       </c>
-      <c r="H32" s="2">
+      <c r="I32" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1"/>
-    <row r="34" s="2" customFormat="1" customHeight="1" spans="3:8">
+    <row r="34" s="2" customFormat="1" customHeight="1" spans="3:9">
       <c r="C34" s="2">
         <v>501</v>
       </c>
       <c r="D34" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E34" s="2">
         <v>5</v>
       </c>
       <c r="F34" s="2">
+        <v>5</v>
+      </c>
+      <c r="G34" s="2">
         <v>14</v>
       </c>
-      <c r="G34" s="2">
+      <c r="H34" s="2">
         <v>10010</v>
       </c>
-      <c r="H34" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="I34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" s="2" customFormat="1" customHeight="1" spans="3:9">
       <c r="C35" s="2">
         <v>502</v>
       </c>
       <c r="D35" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E35" s="2">
         <v>5</v>
       </c>
       <c r="F35" s="2">
+        <v>5</v>
+      </c>
+      <c r="G35" s="2">
         <v>10022</v>
       </c>
-      <c r="G35" s="2">
+      <c r="H35" s="2">
         <v>7</v>
       </c>
-      <c r="H35" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="I35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" s="2" customFormat="1" customHeight="1" spans="3:9">
       <c r="C36" s="2">
         <v>503</v>
       </c>
       <c r="D36" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E36" s="2">
         <v>5</v>
       </c>
       <c r="F36" s="2">
+        <v>5</v>
+      </c>
+      <c r="G36" s="2">
         <v>15</v>
       </c>
-      <c r="G36" s="2">
+      <c r="H36" s="2">
         <v>10024</v>
       </c>
-      <c r="H36" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="I36" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" s="2" customFormat="1" customHeight="1" spans="3:9">
       <c r="C37" s="2">
         <v>504</v>
       </c>
       <c r="D37" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E37" s="2">
         <v>5</v>
       </c>
       <c r="F37" s="2">
+        <v>5</v>
+      </c>
+      <c r="G37" s="2">
         <v>10049</v>
       </c>
-      <c r="G37" s="2">
+      <c r="H37" s="2">
         <v>8</v>
       </c>
-      <c r="H37" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="I37" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" s="2" customFormat="1" customHeight="1" spans="3:9">
       <c r="C38" s="2">
         <v>505</v>
       </c>
       <c r="D38" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E38" s="2">
         <v>5</v>
       </c>
       <c r="F38" s="2">
+        <v>5</v>
+      </c>
+      <c r="G38" s="2">
         <v>16</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>10038</v>
       </c>
-      <c r="H38" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="I38" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" s="2" customFormat="1" customHeight="1" spans="3:9">
       <c r="C39" s="2">
         <v>506</v>
       </c>
       <c r="D39" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E39" s="2">
         <v>5</v>
       </c>
       <c r="F39" s="2">
+        <v>5</v>
+      </c>
+      <c r="G39" s="2">
         <v>10064</v>
       </c>
-      <c r="G39" s="2">
+      <c r="H39" s="2">
         <v>9</v>
       </c>
-      <c r="H39" s="2">
+      <c r="I39" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" customHeight="1"/>
-    <row r="41" s="2" customFormat="1" customHeight="1" spans="3:8">
+    <row r="41" s="2" customFormat="1" customHeight="1" spans="3:9">
       <c r="C41" s="2">
         <v>601</v>
       </c>
       <c r="D41" s="2">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2">
         <v>6</v>
       </c>
-      <c r="E41" s="2">
-        <v>5</v>
-      </c>
       <c r="F41" s="2">
+        <v>5</v>
+      </c>
+      <c r="G41" s="2">
         <v>14</v>
       </c>
-      <c r="G41" s="2">
+      <c r="H41" s="2">
         <v>10010</v>
       </c>
-      <c r="H41" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="I41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" s="2" customFormat="1" customHeight="1" spans="3:9">
       <c r="C42" s="2">
         <v>602</v>
       </c>
       <c r="D42" s="2">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2">
         <v>6</v>
       </c>
-      <c r="E42" s="2">
-        <v>5</v>
-      </c>
       <c r="F42" s="2">
+        <v>5</v>
+      </c>
+      <c r="G42" s="2">
         <v>10022</v>
       </c>
-      <c r="G42" s="2">
+      <c r="H42" s="2">
         <v>7</v>
       </c>
-      <c r="H42" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="I42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" s="2" customFormat="1" customHeight="1" spans="3:9">
       <c r="C43" s="2">
         <v>603</v>
       </c>
       <c r="D43" s="2">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2">
         <v>6</v>
       </c>
-      <c r="E43" s="2">
-        <v>5</v>
-      </c>
       <c r="F43" s="2">
+        <v>5</v>
+      </c>
+      <c r="G43" s="2">
         <v>15</v>
       </c>
-      <c r="G43" s="2">
+      <c r="H43" s="2">
         <v>10024</v>
       </c>
-      <c r="H43" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="I43" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" s="2" customFormat="1" customHeight="1" spans="3:9">
       <c r="C44" s="2">
         <v>604</v>
       </c>
       <c r="D44" s="2">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2">
         <v>6</v>
       </c>
-      <c r="E44" s="2">
-        <v>5</v>
-      </c>
       <c r="F44" s="2">
+        <v>5</v>
+      </c>
+      <c r="G44" s="2">
         <v>10049</v>
       </c>
-      <c r="G44" s="2">
+      <c r="H44" s="2">
         <v>8</v>
       </c>
-      <c r="H44" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="I44" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" s="2" customFormat="1" customHeight="1" spans="3:9">
       <c r="C45" s="2">
         <v>605</v>
       </c>
       <c r="D45" s="2">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2">
         <v>6</v>
       </c>
-      <c r="E45" s="2">
-        <v>5</v>
-      </c>
       <c r="F45" s="2">
+        <v>5</v>
+      </c>
+      <c r="G45" s="2">
         <v>16</v>
       </c>
-      <c r="G45" s="2">
+      <c r="H45" s="2">
         <v>10038</v>
       </c>
-      <c r="H45" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="I45" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" s="2" customFormat="1" customHeight="1" spans="3:9">
       <c r="C46" s="2">
         <v>606</v>
       </c>
       <c r="D46" s="2">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2">
         <v>6</v>
       </c>
-      <c r="E46" s="2">
-        <v>5</v>
-      </c>
       <c r="F46" s="2">
+        <v>5</v>
+      </c>
+      <c r="G46" s="2">
         <v>10064</v>
       </c>
-      <c r="G46" s="2">
+      <c r="H46" s="2">
         <v>9</v>
       </c>
-      <c r="H46" s="2">
+      <c r="I46" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="3:9">
       <c r="C48" s="1">
-        <v>1</v>
+        <v>701</v>
       </c>
       <c r="D48" s="1">
-        <v>5</v>
-      </c>
-      <c r="E48" s="2">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1</v>
       </c>
       <c r="F48" s="2">
+        <v>5</v>
+      </c>
+      <c r="G48" s="2">
         <v>18</v>
       </c>
-      <c r="G48" s="2">
+      <c r="H48" s="2">
         <v>6</v>
       </c>
-      <c r="H48" s="2">
-        <v>2</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>9</v>
+      <c r="I48" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="3:9">
       <c r="C49" s="1">
-        <v>2</v>
+        <v>702</v>
       </c>
       <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>2</v>
+      </c>
+      <c r="F49" s="2">
+        <v>5</v>
+      </c>
+      <c r="G49" s="2">
+        <v>18</v>
+      </c>
+      <c r="H49" s="2">
         <v>6</v>
       </c>
-      <c r="E49" s="2">
-        <v>5</v>
-      </c>
-      <c r="F49" s="2">
-        <v>22</v>
-      </c>
-      <c r="G49" s="2">
-        <v>14</v>
-      </c>
-      <c r="H49" s="2">
-        <v>2</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>10</v>
+      <c r="I49" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="3:9">
       <c r="C50" s="1">
-        <v>3</v>
+        <v>703</v>
       </c>
       <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>3</v>
+      </c>
+      <c r="F50" s="2">
+        <v>5</v>
+      </c>
+      <c r="G50" s="2">
+        <v>18</v>
+      </c>
+      <c r="H50" s="2">
         <v>6</v>
       </c>
-      <c r="E50" s="2">
-        <v>5</v>
-      </c>
-      <c r="F50" s="2">
-        <v>23</v>
-      </c>
-      <c r="G50" s="2">
-        <v>4</v>
-      </c>
-      <c r="H50" s="2">
-        <v>1</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>11</v>
+      <c r="I50" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="3:9">
       <c r="C51" s="1">
+        <v>704</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
         <v>4</v>
       </c>
-      <c r="D51" s="1">
-        <v>3</v>
-      </c>
-      <c r="E51" s="2">
-        <v>5</v>
-      </c>
       <c r="F51" s="2">
-        <v>10063</v>
+        <v>5</v>
       </c>
       <c r="G51" s="2">
-        <v>10038</v>
+        <v>18</v>
       </c>
       <c r="H51" s="2">
-        <v>1</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="I51" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="3:9">
       <c r="C52" s="1">
-        <v>5</v>
+        <v>705</v>
       </c>
       <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>5</v>
+      </c>
+      <c r="F52" s="2">
+        <v>5</v>
+      </c>
+      <c r="G52" s="2">
+        <v>18</v>
+      </c>
+      <c r="H52" s="2">
         <v>6</v>
       </c>
-      <c r="E52" s="2">
-        <v>5</v>
-      </c>
-      <c r="F52" s="2">
-        <v>8</v>
-      </c>
-      <c r="G52" s="2">
-        <v>10017</v>
-      </c>
-      <c r="H52" s="2">
-        <v>2</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>13</v>
+      <c r="I52" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="3:9">
       <c r="C53" s="1">
+        <v>706</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1">
         <v>6</v>
       </c>
-      <c r="D53" s="1">
+      <c r="F53" s="2">
+        <v>5</v>
+      </c>
+      <c r="G53" s="2">
+        <v>18</v>
+      </c>
+      <c r="H53" s="2">
+        <v>6</v>
+      </c>
+      <c r="I53" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="3:10">
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1">
+        <v>5</v>
+      </c>
+      <c r="F55" s="2">
+        <v>5</v>
+      </c>
+      <c r="G55" s="2">
+        <v>18</v>
+      </c>
+      <c r="H55" s="2">
+        <v>6</v>
+      </c>
+      <c r="I55" s="2">
+        <v>2</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="3:10">
+      <c r="C56" s="1">
+        <v>2</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1">
+        <v>6</v>
+      </c>
+      <c r="F56" s="2">
+        <v>5</v>
+      </c>
+      <c r="G56" s="2">
+        <v>22</v>
+      </c>
+      <c r="H56" s="2">
+        <v>14</v>
+      </c>
+      <c r="I56" s="2">
+        <v>2</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="3:10">
+      <c r="C57" s="1">
+        <v>3</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1">
+        <v>6</v>
+      </c>
+      <c r="F57" s="2">
+        <v>5</v>
+      </c>
+      <c r="G57" s="2">
+        <v>23</v>
+      </c>
+      <c r="H57" s="2">
         <v>4</v>
       </c>
-      <c r="E53" s="2">
-        <v>5</v>
-      </c>
-      <c r="F53" s="2">
+      <c r="I57" s="2">
+        <v>1</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="3:10">
+      <c r="C58" s="1">
+        <v>4</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1">
+        <v>3</v>
+      </c>
+      <c r="F58" s="2">
+        <v>5</v>
+      </c>
+      <c r="G58" s="2">
+        <v>10063</v>
+      </c>
+      <c r="H58" s="2">
+        <v>10038</v>
+      </c>
+      <c r="I58" s="2">
+        <v>1</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="3:10">
+      <c r="C59" s="1">
+        <v>5</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1">
+        <v>6</v>
+      </c>
+      <c r="F59" s="2">
+        <v>5</v>
+      </c>
+      <c r="G59" s="2">
+        <v>8</v>
+      </c>
+      <c r="H59" s="2">
+        <v>10017</v>
+      </c>
+      <c r="I59" s="2">
+        <v>2</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="3:10">
+      <c r="C60" s="1">
+        <v>6</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1">
+        <v>4</v>
+      </c>
+      <c r="F60" s="2">
+        <v>5</v>
+      </c>
+      <c r="G60" s="2">
         <v>16</v>
       </c>
-      <c r="G53" s="2">
+      <c r="H60" s="2">
         <v>10031</v>
       </c>
-      <c r="H53" s="2">
-        <v>3</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>14</v>
+      <c r="I60" s="2">
+        <v>3</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 D4 D5 C3:C5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 D4 E4 D5 E5 C3:C5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/GiftPackExclusiveConfig.xlsx
+++ b/Excel/GiftPackExclusiveConfig.xlsx
@@ -1043,10 +1043,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48:H53"/>
+    <sheetView tabSelected="1" topLeftCell="B39" workbookViewId="0">
+      <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2118,159 +2118,297 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" customHeight="1" spans="3:10">
+    <row r="55" customHeight="1" spans="3:9">
       <c r="C55" s="1">
-        <v>1</v>
+        <v>801</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
       </c>
       <c r="E55" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F55" s="2">
         <v>5</v>
       </c>
       <c r="G55" s="2">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="H55" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I55" s="2">
         <v>2</v>
       </c>
-      <c r="J55" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" customHeight="1" spans="3:10">
+    </row>
+    <row r="56" customHeight="1" spans="3:9">
       <c r="C56" s="1">
-        <v>2</v>
+        <v>802</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
       </c>
       <c r="E56" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F56" s="2">
         <v>5</v>
       </c>
       <c r="G56" s="2">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="H56" s="2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I56" s="2">
         <v>2</v>
       </c>
-      <c r="J56" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" customHeight="1" spans="3:10">
+    </row>
+    <row r="57" customHeight="1" spans="3:9">
       <c r="C57" s="1">
-        <v>3</v>
+        <v>803</v>
       </c>
       <c r="D57" s="1">
         <v>0</v>
       </c>
       <c r="E57" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F57" s="2">
         <v>5</v>
       </c>
       <c r="G57" s="2">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="H57" s="2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I57" s="2">
-        <v>1</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" customHeight="1" spans="3:10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="3:9">
       <c r="C58" s="1">
-        <v>4</v>
+        <v>804</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
       </c>
       <c r="E58" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F58" s="2">
         <v>5</v>
       </c>
       <c r="G58" s="2">
-        <v>10063</v>
+        <v>5</v>
       </c>
       <c r="H58" s="2">
-        <v>10038</v>
+        <v>11</v>
       </c>
       <c r="I58" s="2">
-        <v>1</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" customHeight="1" spans="3:10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="3:9">
       <c r="C59" s="1">
-        <v>5</v>
+        <v>805</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
       </c>
       <c r="E59" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F59" s="2">
         <v>5</v>
       </c>
       <c r="G59" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H59" s="2">
-        <v>10017</v>
+        <v>11</v>
       </c>
       <c r="I59" s="2">
         <v>2</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" customHeight="1" spans="3:10">
+    </row>
+    <row r="60" customHeight="1" spans="3:9">
       <c r="C60" s="1">
-        <v>6</v>
+        <v>806</v>
       </c>
       <c r="D60" s="1">
         <v>0</v>
       </c>
       <c r="E60" s="1">
+        <v>6</v>
+      </c>
+      <c r="F60" s="2">
+        <v>5</v>
+      </c>
+      <c r="G60" s="2">
+        <v>5</v>
+      </c>
+      <c r="H60" s="2">
+        <v>11</v>
+      </c>
+      <c r="I60" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="3:10">
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0</v>
+      </c>
+      <c r="E62" s="1">
+        <v>5</v>
+      </c>
+      <c r="F62" s="2">
+        <v>5</v>
+      </c>
+      <c r="G62" s="2">
+        <v>18</v>
+      </c>
+      <c r="H62" s="2">
+        <v>6</v>
+      </c>
+      <c r="I62" s="2">
+        <v>2</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="3:10">
+      <c r="C63" s="1">
+        <v>2</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1">
+        <v>6</v>
+      </c>
+      <c r="F63" s="2">
+        <v>5</v>
+      </c>
+      <c r="G63" s="2">
+        <v>22</v>
+      </c>
+      <c r="H63" s="2">
+        <v>14</v>
+      </c>
+      <c r="I63" s="2">
+        <v>2</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="3:10">
+      <c r="C64" s="1">
+        <v>3</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0</v>
+      </c>
+      <c r="E64" s="1">
+        <v>6</v>
+      </c>
+      <c r="F64" s="2">
+        <v>5</v>
+      </c>
+      <c r="G64" s="2">
+        <v>23</v>
+      </c>
+      <c r="H64" s="2">
         <v>4</v>
       </c>
-      <c r="F60" s="2">
-        <v>5</v>
-      </c>
-      <c r="G60" s="2">
+      <c r="I64" s="2">
+        <v>1</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="3:10">
+      <c r="C65" s="1">
+        <v>4</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0</v>
+      </c>
+      <c r="E65" s="1">
+        <v>3</v>
+      </c>
+      <c r="F65" s="2">
+        <v>5</v>
+      </c>
+      <c r="G65" s="2">
+        <v>10063</v>
+      </c>
+      <c r="H65" s="2">
+        <v>10038</v>
+      </c>
+      <c r="I65" s="2">
+        <v>1</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="3:10">
+      <c r="C66" s="1">
+        <v>5</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0</v>
+      </c>
+      <c r="E66" s="1">
+        <v>6</v>
+      </c>
+      <c r="F66" s="2">
+        <v>5</v>
+      </c>
+      <c r="G66" s="2">
+        <v>8</v>
+      </c>
+      <c r="H66" s="2">
+        <v>10017</v>
+      </c>
+      <c r="I66" s="2">
+        <v>2</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="3:10">
+      <c r="C67" s="1">
+        <v>6</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0</v>
+      </c>
+      <c r="E67" s="1">
+        <v>4</v>
+      </c>
+      <c r="F67" s="2">
+        <v>5</v>
+      </c>
+      <c r="G67" s="2">
         <v>16</v>
       </c>
-      <c r="H60" s="2">
+      <c r="H67" s="2">
         <v>10031</v>
       </c>
-      <c r="I60" s="2">
+      <c r="I67" s="2">
         <v>3</v>
       </c>
-      <c r="J60" s="3" t="s">
+      <c r="J67" s="3" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Excel/GiftPackExclusiveConfig.xlsx
+++ b/Excel/GiftPackExclusiveConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -1045,8 +1045,8 @@
   <sheetPr/>
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B39" workbookViewId="0">
-      <selection activeCell="L56" sqref="L56"/>
+    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
+      <selection activeCell="M60" sqref="M60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>

--- a/Excel/GiftPackExclusiveConfig.xlsx
+++ b/Excel/GiftPackExclusiveConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>轻狂散人</t>
+  </si>
+  <si>
+    <t>刺杀吸血</t>
+  </si>
+  <si>
+    <t>盾10s</t>
   </si>
 </sst>
 </file>
@@ -1043,10 +1049,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
-      <selection activeCell="M60" sqref="M60"/>
+    <sheetView tabSelected="1" topLeftCell="B47" workbookViewId="0">
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2412,6 +2418,214 @@
         <v>15</v>
       </c>
     </row>
+    <row r="69" customHeight="1" spans="3:10">
+      <c r="C69" s="1">
+        <v>7</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1</v>
+      </c>
+      <c r="F69" s="2">
+        <v>5</v>
+      </c>
+      <c r="G69" s="2">
+        <v>10010</v>
+      </c>
+      <c r="H69" s="2">
+        <v>10</v>
+      </c>
+      <c r="I69" s="2">
+        <v>1</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="3:10">
+      <c r="C70" s="1">
+        <v>8</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0</v>
+      </c>
+      <c r="E70" s="1">
+        <v>2</v>
+      </c>
+      <c r="F70" s="2">
+        <v>5</v>
+      </c>
+      <c r="G70" s="2">
+        <v>10010</v>
+      </c>
+      <c r="H70" s="2">
+        <v>10</v>
+      </c>
+      <c r="I70" s="2">
+        <v>1</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="3:10">
+      <c r="C71" s="1">
+        <v>9</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0</v>
+      </c>
+      <c r="E71" s="1">
+        <v>3</v>
+      </c>
+      <c r="F71" s="2">
+        <v>5</v>
+      </c>
+      <c r="G71" s="2">
+        <v>10010</v>
+      </c>
+      <c r="H71" s="2">
+        <v>10</v>
+      </c>
+      <c r="I71" s="2">
+        <v>2</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="3:10">
+      <c r="C72" s="1">
+        <v>10</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0</v>
+      </c>
+      <c r="E72" s="1">
+        <v>4</v>
+      </c>
+      <c r="F72" s="2">
+        <v>5</v>
+      </c>
+      <c r="G72" s="2">
+        <v>10010</v>
+      </c>
+      <c r="H72" s="2">
+        <v>10</v>
+      </c>
+      <c r="I72" s="2">
+        <v>2</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="3:10">
+      <c r="C73" s="1">
+        <v>11</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0</v>
+      </c>
+      <c r="E73" s="1">
+        <v>5</v>
+      </c>
+      <c r="F73" s="2">
+        <v>5</v>
+      </c>
+      <c r="G73" s="2">
+        <v>14</v>
+      </c>
+      <c r="H73" s="2">
+        <v>1009</v>
+      </c>
+      <c r="I73" s="2">
+        <v>3</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="3:10">
+      <c r="C74" s="1">
+        <v>12</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0</v>
+      </c>
+      <c r="E74" s="1">
+        <v>6</v>
+      </c>
+      <c r="F74" s="2">
+        <v>5</v>
+      </c>
+      <c r="G74" s="2">
+        <v>14</v>
+      </c>
+      <c r="H74" s="2">
+        <v>1009</v>
+      </c>
+      <c r="I74" s="2">
+        <v>3</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="3:10">
+      <c r="C75" s="1">
+        <v>13</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1</v>
+      </c>
+      <c r="F75" s="2">
+        <v>5</v>
+      </c>
+      <c r="G75" s="2">
+        <v>14</v>
+      </c>
+      <c r="H75" s="2">
+        <v>1009</v>
+      </c>
+      <c r="I75" s="2">
+        <v>1</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="3:10">
+      <c r="C76" s="1">
+        <v>14</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0</v>
+      </c>
+      <c r="E76" s="1">
+        <v>2</v>
+      </c>
+      <c r="F76" s="2">
+        <v>5</v>
+      </c>
+      <c r="G76" s="2">
+        <v>1006</v>
+      </c>
+      <c r="H76" s="2">
+        <v>1009</v>
+      </c>
+      <c r="I76" s="2">
+        <v>2</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 D4 E4 D5 E5 C3:C5" errorStyle="warning">

--- a/Excel/GiftPackExclusiveConfig.xlsx
+++ b/Excel/GiftPackExclusiveConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -1051,8 +1051,8 @@
   <sheetPr/>
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B47" workbookViewId="0">
-      <selection activeCell="G79" sqref="G79"/>
+    <sheetView tabSelected="1" topLeftCell="B51" workbookViewId="0">
+      <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2539,7 +2539,7 @@
         <v>14</v>
       </c>
       <c r="H73" s="2">
-        <v>1009</v>
+        <v>10009</v>
       </c>
       <c r="I73" s="2">
         <v>3</v>
@@ -2565,7 +2565,7 @@
         <v>14</v>
       </c>
       <c r="H74" s="2">
-        <v>1009</v>
+        <v>10009</v>
       </c>
       <c r="I74" s="2">
         <v>3</v>
@@ -2591,7 +2591,7 @@
         <v>14</v>
       </c>
       <c r="H75" s="2">
-        <v>1009</v>
+        <v>10009</v>
       </c>
       <c r="I75" s="2">
         <v>1</v>
@@ -2614,10 +2614,10 @@
         <v>5</v>
       </c>
       <c r="G76" s="2">
-        <v>1006</v>
+        <v>10021</v>
       </c>
       <c r="H76" s="2">
-        <v>1009</v>
+        <v>10009</v>
       </c>
       <c r="I76" s="2">
         <v>2</v>

--- a/Excel/GiftPackExclusiveConfig.xlsx
+++ b/Excel/GiftPackExclusiveConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -82,6 +82,15 @@
   <si>
     <t>盾10s</t>
   </si>
+  <si>
+    <t>护体</t>
+  </si>
+  <si>
+    <t>瞬移</t>
+  </si>
+  <si>
+    <t>隐身</t>
+  </si>
 </sst>
 </file>
 
@@ -93,7 +102,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +130,12 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -591,137 +606,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -730,6 +745,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1049,10 +1066,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B51" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+    <sheetView tabSelected="1" topLeftCell="B53" workbookViewId="0">
+      <selection activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2626,6 +2643,84 @@
         <v>17</v>
       </c>
     </row>
+    <row r="77" customHeight="1" spans="3:10">
+      <c r="C77" s="1">
+        <v>15</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0</v>
+      </c>
+      <c r="E77" s="1">
+        <v>1</v>
+      </c>
+      <c r="F77" s="2">
+        <v>5</v>
+      </c>
+      <c r="G77" s="6">
+        <v>21</v>
+      </c>
+      <c r="H77" s="7">
+        <v>13</v>
+      </c>
+      <c r="I77" s="2">
+        <v>1</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="3:10">
+      <c r="C78" s="1">
+        <v>16</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0</v>
+      </c>
+      <c r="E78" s="1">
+        <v>2</v>
+      </c>
+      <c r="F78" s="2">
+        <v>5</v>
+      </c>
+      <c r="G78" s="6">
+        <v>22</v>
+      </c>
+      <c r="H78" s="7">
+        <v>14</v>
+      </c>
+      <c r="I78" s="2">
+        <v>2</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="3:10">
+      <c r="C79" s="1">
+        <v>17</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0</v>
+      </c>
+      <c r="E79" s="1">
+        <v>3</v>
+      </c>
+      <c r="F79" s="2">
+        <v>5</v>
+      </c>
+      <c r="G79" s="6">
+        <v>23</v>
+      </c>
+      <c r="H79" s="7">
+        <v>15</v>
+      </c>
+      <c r="I79" s="2">
+        <v>3</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 D4 E4 D5 E5 C3:C5" errorStyle="warning">

--- a/Excel/GiftPackExclusiveConfig.xlsx
+++ b/Excel/GiftPackExclusiveConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>隐身</t>
+  </si>
+  <si>
+    <t>道力盾10s</t>
+  </si>
+  <si>
+    <t>月灵</t>
   </si>
 </sst>
 </file>
@@ -1066,10 +1072,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J79"/>
+  <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B53" workbookViewId="0">
-      <selection activeCell="I82" sqref="I82"/>
+    <sheetView tabSelected="1" topLeftCell="B41" workbookViewId="0">
+      <selection activeCell="M66" sqref="M66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2279,446 +2285,792 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" customHeight="1" spans="3:10">
+    <row r="62" customHeight="1" spans="3:9">
       <c r="C62" s="1">
-        <v>1</v>
+        <v>807</v>
       </c>
       <c r="D62" s="1">
         <v>0</v>
       </c>
       <c r="E62" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F62" s="2">
         <v>5</v>
       </c>
       <c r="G62" s="2">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="H62" s="2">
+        <v>11</v>
+      </c>
+      <c r="I62" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="3:9">
+      <c r="C63" s="1">
+        <v>808</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1">
+        <v>2</v>
+      </c>
+      <c r="F63" s="2">
+        <v>5</v>
+      </c>
+      <c r="G63" s="2">
+        <v>5</v>
+      </c>
+      <c r="H63" s="2">
+        <v>11</v>
+      </c>
+      <c r="I63" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="3:9">
+      <c r="C64" s="1">
+        <v>809</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0</v>
+      </c>
+      <c r="E64" s="1">
+        <v>3</v>
+      </c>
+      <c r="F64" s="2">
+        <v>5</v>
+      </c>
+      <c r="G64" s="2">
+        <v>5</v>
+      </c>
+      <c r="H64" s="2">
+        <v>11</v>
+      </c>
+      <c r="I64" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="3:9">
+      <c r="C65" s="1">
+        <v>810</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0</v>
+      </c>
+      <c r="E65" s="1">
+        <v>4</v>
+      </c>
+      <c r="F65" s="2">
+        <v>5</v>
+      </c>
+      <c r="G65" s="2">
+        <v>5</v>
+      </c>
+      <c r="H65" s="2">
+        <v>11</v>
+      </c>
+      <c r="I65" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="3:9">
+      <c r="C66" s="1">
+        <v>811</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0</v>
+      </c>
+      <c r="E66" s="1">
+        <v>5</v>
+      </c>
+      <c r="F66" s="2">
+        <v>5</v>
+      </c>
+      <c r="G66" s="2">
+        <v>5</v>
+      </c>
+      <c r="H66" s="2">
+        <v>11</v>
+      </c>
+      <c r="I66" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="3:9">
+      <c r="C67" s="1">
+        <v>812</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0</v>
+      </c>
+      <c r="E67" s="1">
         <v>6</v>
       </c>
-      <c r="I62" s="2">
-        <v>2</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" customHeight="1" spans="3:10">
-      <c r="C63" s="1">
-        <v>2</v>
-      </c>
-      <c r="D63" s="1">
-        <v>0</v>
-      </c>
-      <c r="E63" s="1">
-        <v>6</v>
-      </c>
-      <c r="F63" s="2">
-        <v>5</v>
-      </c>
-      <c r="G63" s="2">
-        <v>22</v>
-      </c>
-      <c r="H63" s="2">
-        <v>14</v>
-      </c>
-      <c r="I63" s="2">
-        <v>2</v>
-      </c>
-      <c r="J63" s="3" t="s">
+      <c r="F67" s="2">
+        <v>5</v>
+      </c>
+      <c r="G67" s="2">
+        <v>5</v>
+      </c>
+      <c r="H67" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="64" customHeight="1" spans="3:10">
-      <c r="C64" s="1">
-        <v>3</v>
-      </c>
-      <c r="D64" s="1">
-        <v>0</v>
-      </c>
-      <c r="E64" s="1">
-        <v>6</v>
-      </c>
-      <c r="F64" s="2">
-        <v>5</v>
-      </c>
-      <c r="G64" s="2">
-        <v>23</v>
-      </c>
-      <c r="H64" s="2">
-        <v>4</v>
-      </c>
-      <c r="I64" s="2">
-        <v>1</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" customHeight="1" spans="3:10">
-      <c r="C65" s="1">
-        <v>4</v>
-      </c>
-      <c r="D65" s="1">
-        <v>0</v>
-      </c>
-      <c r="E65" s="1">
-        <v>3</v>
-      </c>
-      <c r="F65" s="2">
-        <v>5</v>
-      </c>
-      <c r="G65" s="2">
-        <v>10063</v>
-      </c>
-      <c r="H65" s="2">
-        <v>10038</v>
-      </c>
-      <c r="I65" s="2">
-        <v>1</v>
-      </c>
-      <c r="J65" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" customHeight="1" spans="3:10">
-      <c r="C66" s="1">
-        <v>5</v>
-      </c>
-      <c r="D66" s="1">
-        <v>0</v>
-      </c>
-      <c r="E66" s="1">
-        <v>6</v>
-      </c>
-      <c r="F66" s="2">
-        <v>5</v>
-      </c>
-      <c r="G66" s="2">
-        <v>8</v>
-      </c>
-      <c r="H66" s="2">
-        <v>10017</v>
-      </c>
-      <c r="I66" s="2">
-        <v>2</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" customHeight="1" spans="3:10">
-      <c r="C67" s="1">
-        <v>6</v>
-      </c>
-      <c r="D67" s="1">
-        <v>0</v>
-      </c>
-      <c r="E67" s="1">
-        <v>4</v>
-      </c>
-      <c r="F67" s="2">
-        <v>5</v>
-      </c>
-      <c r="G67" s="2">
-        <v>16</v>
-      </c>
-      <c r="H67" s="2">
-        <v>10031</v>
-      </c>
       <c r="I67" s="2">
         <v>3</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="3:10">
       <c r="C69" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D69" s="1">
         <v>0</v>
       </c>
       <c r="E69" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F69" s="2">
         <v>5</v>
       </c>
       <c r="G69" s="2">
-        <v>10010</v>
+        <v>18</v>
       </c>
       <c r="H69" s="2">
+        <v>6</v>
+      </c>
+      <c r="I69" s="2">
+        <v>2</v>
+      </c>
+      <c r="J69" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="I69" s="2">
-        <v>1</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="3:10">
       <c r="C70" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D70" s="1">
         <v>0</v>
       </c>
       <c r="E70" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F70" s="2">
         <v>5</v>
       </c>
       <c r="G70" s="2">
-        <v>10010</v>
+        <v>22</v>
       </c>
       <c r="H70" s="2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I70" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="3:10">
       <c r="C71" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D71" s="1">
         <v>0</v>
       </c>
       <c r="E71" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F71" s="2">
         <v>5</v>
       </c>
       <c r="G71" s="2">
-        <v>10010</v>
+        <v>23</v>
       </c>
       <c r="H71" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I71" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="3:10">
       <c r="C72" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D72" s="1">
         <v>0</v>
       </c>
       <c r="E72" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F72" s="2">
         <v>5</v>
       </c>
       <c r="G72" s="2">
-        <v>10010</v>
+        <v>10063</v>
       </c>
       <c r="H72" s="2">
-        <v>10</v>
+        <v>10038</v>
       </c>
       <c r="I72" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="3:10">
       <c r="C73" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
       </c>
       <c r="E73" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F73" s="2">
         <v>5</v>
       </c>
       <c r="G73" s="2">
+        <v>8</v>
+      </c>
+      <c r="H73" s="2">
+        <v>10017</v>
+      </c>
+      <c r="I73" s="2">
+        <v>2</v>
+      </c>
+      <c r="J73" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="H73" s="2">
-        <v>10009</v>
-      </c>
-      <c r="I73" s="2">
-        <v>3</v>
-      </c>
-      <c r="J73" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="3:10">
       <c r="C74" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D74" s="1">
         <v>0</v>
       </c>
       <c r="E74" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F74" s="2">
         <v>5</v>
       </c>
       <c r="G74" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H74" s="2">
-        <v>10009</v>
+        <v>10031</v>
       </c>
       <c r="I74" s="2">
         <v>3</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="75" customHeight="1" spans="3:10">
-      <c r="C75" s="1">
-        <v>13</v>
-      </c>
-      <c r="D75" s="1">
-        <v>0</v>
-      </c>
-      <c r="E75" s="1">
-        <v>1</v>
-      </c>
-      <c r="F75" s="2">
-        <v>5</v>
-      </c>
-      <c r="G75" s="2">
-        <v>14</v>
-      </c>
-      <c r="H75" s="2">
-        <v>10009</v>
-      </c>
-      <c r="I75" s="2">
-        <v>1</v>
-      </c>
-      <c r="J75" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="3:10">
       <c r="C76" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D76" s="1">
         <v>0</v>
       </c>
       <c r="E76" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F76" s="2">
         <v>5</v>
       </c>
       <c r="G76" s="2">
-        <v>10021</v>
+        <v>10010</v>
       </c>
       <c r="H76" s="2">
-        <v>10009</v>
+        <v>10</v>
       </c>
       <c r="I76" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="3:10">
       <c r="C77" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D77" s="1">
         <v>0</v>
       </c>
       <c r="E77" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F77" s="2">
         <v>5</v>
       </c>
-      <c r="G77" s="6">
-        <v>21</v>
-      </c>
-      <c r="H77" s="7">
-        <v>13</v>
+      <c r="G77" s="2">
+        <v>10010</v>
+      </c>
+      <c r="H77" s="2">
+        <v>10</v>
       </c>
       <c r="I77" s="2">
         <v>1</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="3:10">
       <c r="C78" s="1">
+        <v>9</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0</v>
+      </c>
+      <c r="E78" s="1">
+        <v>3</v>
+      </c>
+      <c r="F78" s="2">
+        <v>5</v>
+      </c>
+      <c r="G78" s="2">
+        <v>10010</v>
+      </c>
+      <c r="H78" s="2">
+        <v>10</v>
+      </c>
+      <c r="I78" s="2">
+        <v>2</v>
+      </c>
+      <c r="J78" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="D78" s="1">
-        <v>0</v>
-      </c>
-      <c r="E78" s="1">
-        <v>2</v>
-      </c>
-      <c r="F78" s="2">
-        <v>5</v>
-      </c>
-      <c r="G78" s="6">
-        <v>22</v>
-      </c>
-      <c r="H78" s="7">
-        <v>14</v>
-      </c>
-      <c r="I78" s="2">
-        <v>2</v>
-      </c>
-      <c r="J78" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="3:10">
       <c r="C79" s="1">
+        <v>10</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0</v>
+      </c>
+      <c r="E79" s="1">
+        <v>4</v>
+      </c>
+      <c r="F79" s="2">
+        <v>5</v>
+      </c>
+      <c r="G79" s="2">
+        <v>10010</v>
+      </c>
+      <c r="H79" s="2">
+        <v>10</v>
+      </c>
+      <c r="I79" s="2">
+        <v>2</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="3:10">
+      <c r="C80" s="1">
+        <v>11</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0</v>
+      </c>
+      <c r="E80" s="1">
+        <v>5</v>
+      </c>
+      <c r="F80" s="2">
+        <v>5</v>
+      </c>
+      <c r="G80" s="2">
+        <v>14</v>
+      </c>
+      <c r="H80" s="2">
+        <v>10009</v>
+      </c>
+      <c r="I80" s="2">
+        <v>3</v>
+      </c>
+      <c r="J80" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D79" s="1">
-        <v>0</v>
-      </c>
-      <c r="E79" s="1">
-        <v>3</v>
-      </c>
-      <c r="F79" s="2">
-        <v>5</v>
-      </c>
-      <c r="G79" s="6">
+    </row>
+    <row r="81" customHeight="1" spans="3:10">
+      <c r="C81" s="1">
+        <v>12</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0</v>
+      </c>
+      <c r="E81" s="1">
+        <v>6</v>
+      </c>
+      <c r="F81" s="2">
+        <v>5</v>
+      </c>
+      <c r="G81" s="2">
+        <v>14</v>
+      </c>
+      <c r="H81" s="2">
+        <v>10009</v>
+      </c>
+      <c r="I81" s="2">
+        <v>3</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="3:10">
+      <c r="C82" s="1">
+        <v>13</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0</v>
+      </c>
+      <c r="E82" s="1">
+        <v>1</v>
+      </c>
+      <c r="F82" s="2">
+        <v>5</v>
+      </c>
+      <c r="G82" s="2">
+        <v>14</v>
+      </c>
+      <c r="H82" s="2">
+        <v>10009</v>
+      </c>
+      <c r="I82" s="2">
+        <v>1</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="3:10">
+      <c r="C83" s="1">
+        <v>14</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0</v>
+      </c>
+      <c r="E83" s="1">
+        <v>2</v>
+      </c>
+      <c r="F83" s="2">
+        <v>5</v>
+      </c>
+      <c r="G83" s="2">
+        <v>10021</v>
+      </c>
+      <c r="H83" s="2">
+        <v>10009</v>
+      </c>
+      <c r="I83" s="2">
+        <v>2</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="3:10">
+      <c r="C84" s="1">
+        <v>15</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0</v>
+      </c>
+      <c r="E84" s="1">
+        <v>1</v>
+      </c>
+      <c r="F84" s="2">
+        <v>5</v>
+      </c>
+      <c r="G84" s="6">
+        <v>21</v>
+      </c>
+      <c r="H84" s="7">
+        <v>13</v>
+      </c>
+      <c r="I84" s="2">
+        <v>1</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="3:10">
+      <c r="C85" s="1">
+        <v>16</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0</v>
+      </c>
+      <c r="E85" s="1">
+        <v>2</v>
+      </c>
+      <c r="F85" s="2">
+        <v>5</v>
+      </c>
+      <c r="G85" s="6">
+        <v>22</v>
+      </c>
+      <c r="H85" s="7">
+        <v>14</v>
+      </c>
+      <c r="I85" s="2">
+        <v>2</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="3:10">
+      <c r="C86" s="1">
+        <v>17</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0</v>
+      </c>
+      <c r="E86" s="1">
+        <v>3</v>
+      </c>
+      <c r="F86" s="2">
+        <v>5</v>
+      </c>
+      <c r="G86" s="6">
         <v>23</v>
       </c>
-      <c r="H79" s="7">
+      <c r="H86" s="7">
         <v>15</v>
       </c>
-      <c r="I79" s="2">
-        <v>3</v>
-      </c>
-      <c r="J79" s="3" t="s">
+      <c r="I86" s="2">
+        <v>3</v>
+      </c>
+      <c r="J86" s="3" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="3:10">
+      <c r="C87" s="1">
+        <v>18</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0</v>
+      </c>
+      <c r="E87" s="1">
+        <v>1</v>
+      </c>
+      <c r="F87" s="2">
+        <v>5</v>
+      </c>
+      <c r="G87" s="2">
+        <v>16</v>
+      </c>
+      <c r="H87" s="6">
+        <v>10037</v>
+      </c>
+      <c r="I87" s="2">
+        <v>1</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="3:10">
+      <c r="C88" s="1">
+        <v>19</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0</v>
+      </c>
+      <c r="E88" s="1">
+        <v>2</v>
+      </c>
+      <c r="F88" s="2">
+        <v>5</v>
+      </c>
+      <c r="G88" s="2">
+        <v>16</v>
+      </c>
+      <c r="H88" s="6">
+        <v>10037</v>
+      </c>
+      <c r="I88" s="2">
+        <v>2</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="3:10">
+      <c r="C89" s="1">
+        <v>20</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0</v>
+      </c>
+      <c r="E89" s="1">
+        <v>3</v>
+      </c>
+      <c r="F89" s="2">
+        <v>5</v>
+      </c>
+      <c r="G89" s="2">
+        <v>16</v>
+      </c>
+      <c r="H89" s="6">
+        <v>10037</v>
+      </c>
+      <c r="I89" s="2">
+        <v>3</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="3:10">
+      <c r="C90" s="1">
+        <v>21</v>
+      </c>
+      <c r="D90" s="1">
+        <v>0</v>
+      </c>
+      <c r="E90" s="1">
+        <v>4</v>
+      </c>
+      <c r="F90" s="2">
+        <v>5</v>
+      </c>
+      <c r="G90" s="2">
+        <v>10063</v>
+      </c>
+      <c r="H90" s="6">
+        <v>10037</v>
+      </c>
+      <c r="I90" s="2">
+        <v>3</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="3:10">
+      <c r="C91" s="1">
+        <v>22</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0</v>
+      </c>
+      <c r="E91" s="1">
+        <v>3</v>
+      </c>
+      <c r="F91" s="2">
+        <v>5</v>
+      </c>
+      <c r="G91" s="2">
+        <v>28</v>
+      </c>
+      <c r="H91" s="6">
+        <v>18</v>
+      </c>
+      <c r="I91" s="2">
+        <v>1</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="3:10">
+      <c r="C92" s="1">
+        <v>23</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0</v>
+      </c>
+      <c r="E92" s="1">
+        <v>4</v>
+      </c>
+      <c r="F92" s="2">
+        <v>5</v>
+      </c>
+      <c r="G92" s="2">
+        <v>28</v>
+      </c>
+      <c r="H92" s="6">
+        <v>18</v>
+      </c>
+      <c r="I92" s="2">
+        <v>2</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="3:10">
+      <c r="C93" s="1">
+        <v>24</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0</v>
+      </c>
+      <c r="E93" s="1">
+        <v>5</v>
+      </c>
+      <c r="F93" s="2">
+        <v>5</v>
+      </c>
+      <c r="G93" s="2">
+        <v>28</v>
+      </c>
+      <c r="H93" s="6">
+        <v>18</v>
+      </c>
+      <c r="I93" s="2">
+        <v>3</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="3:10">
+      <c r="C94" s="1">
+        <v>25</v>
+      </c>
+      <c r="D94" s="1">
+        <v>0</v>
+      </c>
+      <c r="E94" s="1">
+        <v>6</v>
+      </c>
+      <c r="F94" s="2">
+        <v>5</v>
+      </c>
+      <c r="G94" s="2">
+        <v>28</v>
+      </c>
+      <c r="H94" s="6">
+        <v>18</v>
+      </c>
+      <c r="I94" s="2">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GiftPackExclusiveConfig.xlsx
+++ b/Excel/GiftPackExclusiveConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -57,6 +57,27 @@
   </si>
   <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>10009</t>
+  </si>
+  <si>
+    <t>10003</t>
+  </si>
+  <si>
+    <t>10010</t>
+  </si>
+  <si>
+    <t>10036</t>
+  </si>
+  <si>
+    <t>10017</t>
+  </si>
+  <si>
+    <t>10037</t>
+  </si>
+  <si>
+    <t>10031</t>
   </si>
   <si>
     <t>赫景鸿</t>
@@ -1074,8 +1095,8 @@
   <sheetPr/>
   <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B41" workbookViewId="0">
-      <selection activeCell="M66" sqref="M66"/>
+    <sheetView tabSelected="1" topLeftCell="B47" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62:H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2298,10 +2319,10 @@
       <c r="F62" s="2">
         <v>5</v>
       </c>
-      <c r="G62" s="2">
-        <v>5</v>
-      </c>
-      <c r="H62" s="2">
+      <c r="G62" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H62" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I62" s="2">
@@ -2321,10 +2342,10 @@
       <c r="F63" s="2">
         <v>5</v>
       </c>
-      <c r="G63" s="2">
-        <v>5</v>
-      </c>
-      <c r="H63" s="2">
+      <c r="G63" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I63" s="2">
@@ -2344,11 +2365,11 @@
       <c r="F64" s="2">
         <v>5</v>
       </c>
-      <c r="G64" s="2">
-        <v>5</v>
-      </c>
-      <c r="H64" s="2">
-        <v>11</v>
+      <c r="G64" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="I64" s="2">
         <v>2</v>
@@ -2367,11 +2388,11 @@
       <c r="F65" s="2">
         <v>5</v>
       </c>
-      <c r="G65" s="2">
-        <v>5</v>
-      </c>
-      <c r="H65" s="2">
-        <v>11</v>
+      <c r="G65" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="I65" s="2">
         <v>2</v>
@@ -2390,11 +2411,11 @@
       <c r="F66" s="2">
         <v>5</v>
       </c>
-      <c r="G66" s="2">
-        <v>5</v>
-      </c>
-      <c r="H66" s="2">
-        <v>11</v>
+      <c r="G66" s="6">
+        <v>25</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="I66" s="2">
         <v>3</v>
@@ -2413,11 +2434,11 @@
       <c r="F67" s="2">
         <v>5</v>
       </c>
-      <c r="G67" s="2">
-        <v>5</v>
-      </c>
-      <c r="H67" s="2">
-        <v>11</v>
+      <c r="G67" s="6">
+        <v>29</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="I67" s="2">
         <v>3</v>
@@ -2446,7 +2467,7 @@
         <v>2</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="3:10">
@@ -2472,7 +2493,7 @@
         <v>2</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="3:10">
@@ -2498,7 +2519,7 @@
         <v>1</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="3:10">
@@ -2524,7 +2545,7 @@
         <v>1</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="3:10">
@@ -2550,7 +2571,7 @@
         <v>2</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="3:10">
@@ -2576,7 +2597,7 @@
         <v>3</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="3:10">
@@ -2602,7 +2623,7 @@
         <v>1</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="3:10">
@@ -2628,7 +2649,7 @@
         <v>1</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="3:10">
@@ -2654,7 +2675,7 @@
         <v>2</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="3:10">
@@ -2680,7 +2701,7 @@
         <v>2</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="3:10">
@@ -2706,7 +2727,7 @@
         <v>3</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="3:10">
@@ -2732,7 +2753,7 @@
         <v>3</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="3:10">
@@ -2758,7 +2779,7 @@
         <v>1</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="3:10">
@@ -2784,7 +2805,7 @@
         <v>2</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="3:10">
@@ -2810,7 +2831,7 @@
         <v>1</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="3:10">
@@ -2836,7 +2857,7 @@
         <v>2</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="3:10">
@@ -2862,7 +2883,7 @@
         <v>3</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="3:10">
@@ -2888,7 +2909,7 @@
         <v>1</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="3:10">
@@ -2914,7 +2935,7 @@
         <v>2</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="3:10">
@@ -2940,7 +2961,7 @@
         <v>3</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="3:10">
@@ -2966,7 +2987,7 @@
         <v>3</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="3:10">
@@ -2992,7 +3013,7 @@
         <v>1</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="3:10">
@@ -3018,7 +3039,7 @@
         <v>2</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="3:10">
@@ -3044,7 +3065,7 @@
         <v>3</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="3:10">
@@ -3070,7 +3091,7 @@
         <v>3</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GiftPackExclusiveConfig.xlsx
+++ b/Excel/GiftPackExclusiveConfig.xlsx
@@ -1095,8 +1095,8 @@
   <sheetPr/>
   <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B47" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62:H63"/>
+    <sheetView tabSelected="1" topLeftCell="B39" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48:G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2044,7 +2044,7 @@
         <v>5</v>
       </c>
       <c r="G48" s="2">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="H48" s="2">
         <v>6</v>
@@ -2067,7 +2067,7 @@
         <v>5</v>
       </c>
       <c r="G49" s="2">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="H49" s="2">
         <v>6</v>
@@ -2090,7 +2090,7 @@
         <v>5</v>
       </c>
       <c r="G50" s="2">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="H50" s="2">
         <v>6</v>
@@ -2113,7 +2113,7 @@
         <v>5</v>
       </c>
       <c r="G51" s="2">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="H51" s="2">
         <v>6</v>
@@ -2136,7 +2136,7 @@
         <v>5</v>
       </c>
       <c r="G52" s="2">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="H52" s="2">
         <v>6</v>
@@ -2159,7 +2159,7 @@
         <v>5</v>
       </c>
       <c r="G53" s="2">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="H53" s="2">
         <v>6</v>

--- a/Excel/GiftPackExclusiveConfig.xlsx
+++ b/Excel/GiftPackExclusiveConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="24045" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -1095,8 +1095,8 @@
   <sheetPr/>
   <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B39" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48:G53"/>
+    <sheetView tabSelected="1" topLeftCell="B32" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55:G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2182,7 +2182,7 @@
         <v>5</v>
       </c>
       <c r="G55" s="2">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H55" s="2">
         <v>11</v>
@@ -2205,7 +2205,7 @@
         <v>5</v>
       </c>
       <c r="G56" s="2">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H56" s="2">
         <v>11</v>
@@ -2228,7 +2228,7 @@
         <v>5</v>
       </c>
       <c r="G57" s="2">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H57" s="2">
         <v>11</v>
@@ -2251,7 +2251,7 @@
         <v>5</v>
       </c>
       <c r="G58" s="2">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H58" s="2">
         <v>11</v>
@@ -2274,7 +2274,7 @@
         <v>5</v>
       </c>
       <c r="G59" s="2">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H59" s="2">
         <v>11</v>
@@ -2297,7 +2297,7 @@
         <v>5</v>
       </c>
       <c r="G60" s="2">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H60" s="2">
         <v>11</v>

--- a/Excel/GiftPackExclusiveConfig.xlsx
+++ b/Excel/GiftPackExclusiveConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="32">
   <si>
     <t>ID</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>月灵</t>
+  </si>
+  <si>
+    <t>法力盾10s</t>
+  </si>
+  <si>
+    <t>雷电</t>
   </si>
 </sst>
 </file>
@@ -1093,10 +1099,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J94"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B32" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55:G60"/>
+    <sheetView tabSelected="1" topLeftCell="B78" workbookViewId="0">
+      <selection activeCell="K107" sqref="K107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -3094,9 +3100,269 @@
         <v>29</v>
       </c>
     </row>
+    <row r="95" customHeight="1" spans="3:10">
+      <c r="C95" s="1">
+        <v>26</v>
+      </c>
+      <c r="D95" s="1">
+        <v>0</v>
+      </c>
+      <c r="E95" s="1">
+        <v>1</v>
+      </c>
+      <c r="F95" s="2">
+        <v>5</v>
+      </c>
+      <c r="G95" s="2">
+        <v>15</v>
+      </c>
+      <c r="H95" s="6">
+        <v>10023</v>
+      </c>
+      <c r="I95" s="2">
+        <v>1</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="3:10">
+      <c r="C96" s="1">
+        <v>27</v>
+      </c>
+      <c r="D96" s="1">
+        <v>0</v>
+      </c>
+      <c r="E96" s="1">
+        <v>2</v>
+      </c>
+      <c r="F96" s="2">
+        <v>5</v>
+      </c>
+      <c r="G96" s="2">
+        <v>15</v>
+      </c>
+      <c r="H96" s="6">
+        <v>10023</v>
+      </c>
+      <c r="I96" s="2">
+        <v>2</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="3:10">
+      <c r="C97" s="1">
+        <v>28</v>
+      </c>
+      <c r="D97" s="1">
+        <v>0</v>
+      </c>
+      <c r="E97" s="1">
+        <v>3</v>
+      </c>
+      <c r="F97" s="2">
+        <v>5</v>
+      </c>
+      <c r="G97" s="2">
+        <v>15</v>
+      </c>
+      <c r="H97" s="6">
+        <v>10023</v>
+      </c>
+      <c r="I97" s="2">
+        <v>3</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="3:10">
+      <c r="C98" s="1">
+        <v>29</v>
+      </c>
+      <c r="D98" s="1">
+        <v>0</v>
+      </c>
+      <c r="E98" s="1">
+        <v>4</v>
+      </c>
+      <c r="F98" s="2">
+        <v>5</v>
+      </c>
+      <c r="G98" s="2">
+        <v>10048</v>
+      </c>
+      <c r="H98" s="6">
+        <v>10023</v>
+      </c>
+      <c r="I98" s="2">
+        <v>3</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="3:10">
+      <c r="C99" s="1">
+        <v>30</v>
+      </c>
+      <c r="D99" s="1">
+        <v>0</v>
+      </c>
+      <c r="E99" s="1">
+        <v>3</v>
+      </c>
+      <c r="F99" s="2">
+        <v>5</v>
+      </c>
+      <c r="G99" s="2">
+        <v>8</v>
+      </c>
+      <c r="H99" s="6">
+        <v>10017</v>
+      </c>
+      <c r="I99" s="2">
+        <v>1</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="3:10">
+      <c r="C100" s="1">
+        <v>31</v>
+      </c>
+      <c r="D100" s="1">
+        <v>0</v>
+      </c>
+      <c r="E100" s="1">
+        <v>4</v>
+      </c>
+      <c r="F100" s="2">
+        <v>5</v>
+      </c>
+      <c r="G100" s="2">
+        <v>8</v>
+      </c>
+      <c r="H100" s="6">
+        <v>10017</v>
+      </c>
+      <c r="I100" s="2">
+        <v>2</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="3:10">
+      <c r="C101" s="1">
+        <v>32</v>
+      </c>
+      <c r="D101" s="1">
+        <v>0</v>
+      </c>
+      <c r="E101" s="1">
+        <v>5</v>
+      </c>
+      <c r="F101" s="2">
+        <v>5</v>
+      </c>
+      <c r="G101" s="2">
+        <v>8</v>
+      </c>
+      <c r="H101" s="6">
+        <v>10017</v>
+      </c>
+      <c r="I101" s="2">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="3:10">
+      <c r="C102" s="1">
+        <v>33</v>
+      </c>
+      <c r="D102" s="1">
+        <v>0</v>
+      </c>
+      <c r="E102" s="1">
+        <v>6</v>
+      </c>
+      <c r="F102" s="2">
+        <v>5</v>
+      </c>
+      <c r="G102" s="2">
+        <v>12</v>
+      </c>
+      <c r="H102" s="6">
+        <v>10018</v>
+      </c>
+      <c r="I102" s="2">
+        <v>3</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="3:10">
+      <c r="C103" s="1">
+        <v>34</v>
+      </c>
+      <c r="D103" s="1">
+        <v>0</v>
+      </c>
+      <c r="E103" s="1">
+        <v>6</v>
+      </c>
+      <c r="F103" s="2">
+        <v>5</v>
+      </c>
+      <c r="G103" s="2">
+        <v>12</v>
+      </c>
+      <c r="H103" s="6">
+        <v>10018</v>
+      </c>
+      <c r="I103" s="2">
+        <v>3</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="104" customHeight="1" spans="3:10">
+      <c r="C104" s="1">
+        <v>35</v>
+      </c>
+      <c r="D104" s="1">
+        <v>0</v>
+      </c>
+      <c r="E104" s="1">
+        <v>6</v>
+      </c>
+      <c r="F104" s="2">
+        <v>5</v>
+      </c>
+      <c r="G104" s="2">
+        <v>12</v>
+      </c>
+      <c r="H104" s="6">
+        <v>10018</v>
+      </c>
+      <c r="I104" s="2">
+        <v>3</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 D4 E4 D5 E5 C3:C5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3:E3 C3:C5 D4:E5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/GiftPackExclusiveConfig.xlsx
+++ b/Excel/GiftPackExclusiveConfig.xlsx
@@ -1101,8 +1101,8 @@
   <sheetPr/>
   <dimension ref="A1:J104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B78" workbookViewId="0">
-      <selection activeCell="K107" sqref="K107"/>
+    <sheetView tabSelected="1" topLeftCell="B82" workbookViewId="0">
+      <selection activeCell="I109" sqref="I109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -3198,7 +3198,7 @@
         <v>10023</v>
       </c>
       <c r="I98" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J98" s="3" t="s">
         <v>30</v>
@@ -3276,7 +3276,7 @@
         <v>10017</v>
       </c>
       <c r="I101" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>31</v>
@@ -3302,7 +3302,7 @@
         <v>10018</v>
       </c>
       <c r="I102" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>31</v>
@@ -3328,7 +3328,7 @@
         <v>10018</v>
       </c>
       <c r="I103" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J103" s="3" t="s">
         <v>31</v>
@@ -3354,7 +3354,7 @@
         <v>10018</v>
       </c>
       <c r="I104" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J104" s="3" t="s">
         <v>31</v>
@@ -3362,7 +3362,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3:E3 C3:C5 D4:E5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:E5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
